--- a/Excel/Hotelbookingcard.xlsx
+++ b/Excel/Hotelbookingcard.xlsx
@@ -789,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BB6" sqref="BB6"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BC11" sqref="BC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
